--- a/data/223/SPSE/BVSP Index - Daily.xlsx
+++ b/data/223/SPSE/BVSP Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KON2"/>
+  <dimension ref="A1:KOQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39554,15 +39554,30 @@
       </c>
       <c r="KOL1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="KOM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="KON1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="KOO1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="KOM1" s="1" t="inlineStr">
+      <c r="KOP1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="KON1" s="1" t="inlineStr">
+      <c r="KOQ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -62358,17 +62373,26 @@
       <c r="KOK2" t="n">
         <v>119999</v>
       </c>
-      <c r="KOL2" t="inlineStr">
+      <c r="KOL2" t="n">
+        <v>121570</v>
+      </c>
+      <c r="KOM2" t="n">
+        <v>121280</v>
+      </c>
+      <c r="KON2" t="n">
+        <v>118885</v>
+      </c>
+      <c r="KOO2" t="inlineStr">
         <is>
           <t>BVSP</t>
         </is>
       </c>
-      <c r="KOM2" t="inlineStr">
+      <c r="KOP2" t="inlineStr">
         <is>
           <t>Bovespa Index, Close Price</t>
         </is>
       </c>
-      <c r="KON2" t="inlineStr">
+      <c r="KOQ2" t="inlineStr">
         <is>
           <t>Index: 1992.03.11=1.51</t>
         </is>
